--- a/biology/Zoologie/Crossobamon_eversmanni/Crossobamon_eversmanni.xlsx
+++ b/biology/Zoologie/Crossobamon_eversmanni/Crossobamon_eversmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossobamon eversmanni est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossobamon eversmanni est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord de l'Iran, au Pakistan, en Afghanistan, au Turkménistan, en Ouzbékistan, au Tadjikistan et dans le sud du Kazakhstan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord de l'Iran, au Pakistan, en Afghanistan, au Turkménistan, en Ouzbékistan, au Tadjikistan et dans le sud du Kazakhstan.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko se rencontre dans les dunes et le bush.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko a une queue fine et large, une tête relativement triangulaire avec de grands yeux, et de longs et fins membres.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (16 septembre 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (16 septembre 2012) :
 Crossobamon eversmanni eversmanni (Wiegmann, 1834)
 Crossobamon eversmanni lumsdenii (Boulenger, 1887)</t>
         </is>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Eduard Friedrich von Eversmann[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Eduard Friedrich von Eversmann.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Boulenger, 1887 : Catalogue of the Lizards in the British Museum (Nat. Hist.) III. Lacertidae, Gerrhosauridae, Scincidae, Anelytropsidae, Dibamidae, Chamaeleontidae. London, p. 1-575 (texte intégral).
 Wiegmann, 1834 : Herpetologia mexicana, seu Descriptio amphibiorum Novae Hispaniae quae itineribus comitis De Sack, Ferdinandi Deppe et Chr. Guil. Schiede in Museum zoologicum Berolinense pervenerunt. Pars prima saurorum species amplectens, adjecto systematis saurorum prodromo, additisque multis in hunc amphibiorum ordinem observationibus. Lüderitz, Berlin, p. 1-54 (texte intégral).</t>
